--- a/data/IEEE9/ieee9/ieee9_2035.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9BCA3B-3612-4E68-BD07-EB028F56C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA97810-7593-4BD5-A275-8C93C8A23B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="3435" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="5835" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4335,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>300</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>2.3521075249154243E-4</v>
+        <v>7.8403584163847483E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8738,55 +8738,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.1430273383926122</v>
+        <v>0.47675779464204066</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>2.833535933071226</v>
+        <v>9.445119776904086</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>7.3935139892109349</v>
+        <v>24.645046630703117</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>9.2267417939105769</v>
+        <v>30.755805979701922</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>10.248170887812012</v>
+        <v>34.160569626040036</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>10.438221175825181</v>
+        <v>34.794070586083933</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>10.246548413641765</v>
+        <v>34.155161378805879</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>8.7491007588918333</v>
+        <v>29.163669196306113</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>5.7816483039224646</v>
+        <v>19.272161013074882</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>1.412524572551888</v>
+        <v>4.708415241839627</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.1040504708786687E-2</v>
+        <v>3.6801682362622296E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>9.504434488433757E-4</v>
+        <v>3.168144829477919E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>7.2723324494834045E-4</v>
+        <v>2.4241108164944685E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>2.3521075249154243E-4</v>
+        <v>7.8403584163847483E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8839,55 +8839,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.1430273383926122</v>
+        <v>0.47675779464204066</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>2.833535933071226</v>
+        <v>9.445119776904086</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>7.3935139892109349</v>
+        <v>24.645046630703117</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>9.2267417939105769</v>
+        <v>30.755805979701922</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>10.248170887812012</v>
+        <v>34.160569626040036</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>10.438221175825181</v>
+        <v>34.794070586083933</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>10.246548413641765</v>
+        <v>34.155161378805879</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>8.7491007588918333</v>
+        <v>29.163669196306113</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>5.7816483039224646</v>
+        <v>19.272161013074882</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>1.412524572551888</v>
+        <v>4.708415241839627</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.1040504708786687E-2</v>
+        <v>3.6801682362622296E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>9.504434488433757E-4</v>
+        <v>3.168144829477919E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>7.2723324494834045E-4</v>
+        <v>2.4241108164944685E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>4.0881147540983604E-4</v>
+        <v>1.3627049180327867E-3</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9567,51 +9567,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.11460061475409834</v>
+        <v>0.38200204918032782</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>2.2556065573770487</v>
+        <v>7.5186885245901625</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>5.3657581967213117</v>
+        <v>17.885860655737705</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>7.2207122950819675</v>
+        <v>24.069040983606556</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>8.8559409836065566</v>
+        <v>29.519803278688521</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>10.517127049180328</v>
+        <v>35.057090163934426</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>8.7767735655737695</v>
+        <v>29.255911885245901</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>6.4491731557377046</v>
+        <v>21.497243852459018</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>3.0937475409836064</v>
+        <v>10.312491803278688</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0.64633094262295065</v>
+        <v>2.1544364754098355</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>4.1311475409836059E-3</v>
+        <v>1.3770491803278686E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.8073770491803278E-3</v>
+        <v>6.0245901639344257E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>4.0881147540983604E-4</v>
+        <v>1.3627049180327867E-3</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9668,51 +9668,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.11460061475409834</v>
+        <v>0.38200204918032782</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>2.2556065573770487</v>
+        <v>7.5186885245901625</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>5.3657581967213117</v>
+        <v>17.885860655737705</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>7.2207122950819675</v>
+        <v>24.069040983606556</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>8.8559409836065566</v>
+        <v>29.519803278688521</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>10.517127049180328</v>
+        <v>35.057090163934426</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>8.7767735655737695</v>
+        <v>29.255911885245901</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>6.4491731557377046</v>
+        <v>21.497243852459018</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>3.0937475409836064</v>
+        <v>10.312491803278688</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0.64633094262295065</v>
+        <v>2.1544364754098355</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>4.1311475409836059E-3</v>
+        <v>1.3770491803278686E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.8073770491803278E-3</v>
+        <v>6.0245901639344257E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -10396,47 +10396,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.12390850417615791</v>
+        <v>0.41302834725385973</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>2.7056734054669702</v>
+        <v>9.018911351556568</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>6.2993190015186018</v>
+        <v>20.997730005062007</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>9.0842539863325751</v>
+        <v>30.28084662110858</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>9.3517202923310521</v>
+        <v>31.172400974436844</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>8.87960563781321</v>
+        <v>29.598685459377368</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>6.9521307896734994</v>
+        <v>23.173769298911665</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>5.3553189066059215</v>
+        <v>17.851063022019741</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>2.2723424449506453</v>
+        <v>7.5744748165021507</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.40117454441913436</v>
+        <v>1.3372484813971144</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>6.5110098709187552E-4</v>
+        <v>2.170336623639585E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10497,47 +10497,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.12390850417615791</v>
+        <v>0.41302834725385973</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>2.7056734054669702</v>
+        <v>9.018911351556568</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>6.2993190015186018</v>
+        <v>20.997730005062007</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>9.0842539863325751</v>
+        <v>30.28084662110858</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>9.3517202923310521</v>
+        <v>31.172400974436844</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>8.87960563781321</v>
+        <v>29.598685459377368</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>6.9521307896734994</v>
+        <v>23.173769298911665</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>5.3553189066059215</v>
+        <v>17.851063022019741</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>2.2723424449506453</v>
+        <v>7.5744748165021507</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.40117454441913436</v>
+        <v>1.3372484813971144</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>6.5110098709187552E-4</v>
+        <v>2.170336623639585E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -13004,8 +13004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13032,7 +13032,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13043,7 +13043,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13089,7 +13089,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:Y9"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22690,7 +22690,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.9636554813934352E-4</v>
+        <v>9.8788516046447827E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22710,55 +22710,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.17306307945506078</v>
+        <v>0.57687693151686925</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>3.5985906350004564</v>
+        <v>11.995302116668189</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>9.5376330460821048</v>
+        <v>31.792110153607016</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>11.994764332083751</v>
+        <v>39.982547773612502</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>12.400286774252534</v>
+        <v>41.334289247508444</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>13.569687528572734</v>
+        <v>45.232291761909117</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>13.218047453597876</v>
+        <v>44.060158178659584</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>11.111357963792628</v>
+        <v>37.037859879308762</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>7.1114274138246314</v>
+        <v>23.704758046082105</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>1.7797809614153786</v>
+        <v>5.9326032047179291</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>1.3911035933071227E-2</v>
+        <v>4.6370119776904091E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.178549876565786E-3</v>
+        <v>3.9284995885526201E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>8.7995222638749201E-4</v>
+        <v>2.9331740879583066E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.9636554813934352E-4</v>
+        <v>9.8788516046447827E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22811,55 +22811,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.17306307945506078</v>
+        <v>0.57687693151686925</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>3.5985906350004564</v>
+        <v>11.995302116668189</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>9.5376330460821048</v>
+        <v>31.792110153607016</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>11.994764332083751</v>
+        <v>39.982547773612502</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>12.400286774252534</v>
+        <v>41.334289247508444</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>13.569687528572734</v>
+        <v>45.232291761909117</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>13.218047453597876</v>
+        <v>44.060158178659584</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>11.111357963792628</v>
+        <v>37.037859879308762</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>7.1114274138246314</v>
+        <v>23.704758046082105</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>1.7797809614153786</v>
+        <v>5.9326032047179291</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>1.3911035933071227E-2</v>
+        <v>4.6370119776904091E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.178549876565786E-3</v>
+        <v>3.9284995885526201E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>8.7995222638749201E-4</v>
+        <v>2.9331740879583066E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>5.1919057377049183E-4</v>
+        <v>1.7306352459016392E-3</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23634,51 +23634,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.14898079918032786</v>
+        <v>0.49660266393442615</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>2.9097324590163933</v>
+        <v>9.6991081967213102</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>6.9218280737704925</v>
+        <v>23.072760245901641</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>9.1703046147540981</v>
+        <v>30.567682049180327</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>11.512723278688524</v>
+        <v>38.375744262295079</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>13.672265163934425</v>
+        <v>45.57421721311475</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>11.409805635245901</v>
+        <v>38.03268545081967</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>7.8679912500000002</v>
+        <v>26.226637499999999</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>3.9290593770491804</v>
+        <v>13.096864590163934</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0.82730360655737689</v>
+        <v>2.7576786885245896</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>4.9986885245901624E-3</v>
+        <v>1.6662295081967208E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>2.2049999999999999E-3</v>
+        <v>7.3499999999999998E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>5.1919057377049183E-4</v>
+        <v>1.7306352459016392E-3</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23735,51 +23735,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.14898079918032786</v>
+        <v>0.49660266393442615</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>2.9097324590163933</v>
+        <v>9.6991081967213102</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>6.9218280737704925</v>
+        <v>23.072760245901641</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>9.1703046147540981</v>
+        <v>30.567682049180327</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>11.512723278688524</v>
+        <v>38.375744262295079</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>13.672265163934425</v>
+        <v>45.57421721311475</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>11.409805635245901</v>
+        <v>38.03268545081967</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>7.8679912500000002</v>
+        <v>26.226637499999999</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>3.9290593770491804</v>
+        <v>13.096864590163934</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0.82730360655737689</v>
+        <v>2.7576786885245896</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>4.9986885245901624E-3</v>
+        <v>1.6662295081967208E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>2.2049999999999999E-3</v>
+        <v>7.3499999999999998E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -24463,47 +24463,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.15364654517843582</v>
+        <v>0.512155150594786</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>3.3279782887243732</v>
+        <v>11.093260962414577</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>7.8111555618830657</v>
+        <v>26.037185206276884</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>11.537002562642369</v>
+        <v>38.456675208807901</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>12.063719177107057</v>
+        <v>40.212397257023525</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>10.655526765375852</v>
+        <v>35.51842255125284</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>8.551120871298405</v>
+        <v>28.503736237661347</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>6.8548082004555804</v>
+        <v>22.849360668185266</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>2.9313217539863325</v>
+        <v>9.7710725132877752</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0.51751516230068328</v>
+        <v>1.7250505410022776</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>8.4643128321943816E-4</v>
+        <v>2.8214376107314606E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24564,47 +24564,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.15364654517843582</v>
+        <v>0.512155150594786</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>3.3279782887243732</v>
+        <v>11.093260962414577</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>7.8111555618830657</v>
+        <v>26.037185206276884</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>11.537002562642369</v>
+        <v>38.456675208807901</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>12.063719177107057</v>
+        <v>40.212397257023525</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>10.655526765375852</v>
+        <v>35.51842255125284</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>8.551120871298405</v>
+        <v>28.503736237661347</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>6.8548082004555804</v>
+        <v>22.849360668185266</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>2.9313217539863325</v>
+        <v>9.7710725132877752</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0.51751516230068328</v>
+        <v>1.7250505410022776</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>8.4643128321943816E-4</v>
+        <v>2.8214376107314606E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>

--- a/data/IEEE9/ieee9/ieee9_2035.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA97810-7593-4BD5-A275-8C93C8A23B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CEA130-B54A-4E8F-AA87-0F3D0C7DFFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="5835" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="5745" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/IEEE9/ieee9/ieee9_2035.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CEA130-B54A-4E8F-AA87-0F3D0C7DFFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5C5275-05AD-4C45-806E-4E0A9E09E812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="5745" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13004,7 +13004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -13089,7 +13089,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27313,76 +27313,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2035.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D59607F-E79A-42C2-A248-40FA4DB96D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6425C72E-30E6-4DF5-B34F-9F018DDD1603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="5055" windowWidth="28800" windowHeight="15435" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,99 +8912,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>7.6545872747117425</v>
+        <v>15.309174549423485</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>7.0739533191537003</v>
+        <v>14.147906638307401</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>7.4894793882234412</v>
+        <v>14.978958776446882</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>7.4568659744766599</v>
+        <v>14.91373194895332</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>6.1393204970334709</v>
+        <v>12.278640994066942</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>6.2270771297436482</v>
+        <v>12.454154259487296</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>6.2404651292958686</v>
+        <v>12.480930258591737</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>5.6040767379379819</v>
+        <v>11.208153475875964</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>5.0611134277398424</v>
+        <v>10.122226855479685</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>3.658461882906078</v>
+        <v>7.316923765812156</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>3.3743753498264857</v>
+        <v>6.7487506996529714</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>2.2638531288480914</v>
+        <v>4.5277062576961828</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.8815472825478563</v>
+        <v>3.7630945650957126</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.8015322400089555</v>
+        <v>3.603064480017911</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>2.4993097223777005</v>
+        <v>4.9986194447554011</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>3.3809856011418327</v>
+        <v>6.7619712022836653</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>3.7801263573267661</v>
+        <v>7.5602527146535321</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>5.191647892645249</v>
+        <v>10.383295785290498</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>4.7222142617261831</v>
+        <v>9.4444285234523662</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>4.4892113511698195</v>
+        <v>8.978422702339639</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>5.9234008032016128</v>
+        <v>11.846801606403226</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>7.0845996585693491</v>
+        <v>14.169199317138698</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>6.6980608418224561</v>
+        <v>13.396121683644912</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>9.5207836113287811</v>
+        <v>19.041567222657562</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,99 +9013,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>7.6545872747117425</v>
+        <v>15.309174549423485</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>7.0739533191537003</v>
+        <v>14.147906638307401</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>7.4894793882234412</v>
+        <v>14.978958776446882</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>7.4568659744766599</v>
+        <v>14.91373194895332</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>6.1393204970334709</v>
+        <v>12.278640994066942</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>6.2270771297436482</v>
+        <v>12.454154259487296</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>6.2404651292958686</v>
+        <v>12.480930258591737</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>5.6040767379379819</v>
+        <v>11.208153475875964</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>5.0611134277398424</v>
+        <v>10.122226855479685</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>3.658461882906078</v>
+        <v>7.316923765812156</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>3.3743753498264857</v>
+        <v>6.7487506996529714</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>2.2638531288480914</v>
+        <v>4.5277062576961828</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.8815472825478563</v>
+        <v>3.7630945650957126</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.8015322400089555</v>
+        <v>3.603064480017911</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>2.4993097223777005</v>
+        <v>4.9986194447554011</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>3.3809856011418327</v>
+        <v>6.7619712022836653</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>3.7801263573267661</v>
+        <v>7.5602527146535321</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>5.191647892645249</v>
+        <v>10.383295785290498</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>4.7222142617261831</v>
+        <v>9.4444285234523662</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>4.4892113511698195</v>
+        <v>8.978422702339639</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>5.9234008032016128</v>
+        <v>11.846801606403226</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>7.0845996585693491</v>
+        <v>14.169199317138698</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>6.6980608418224561</v>
+        <v>13.396121683644912</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>9.5207836113287811</v>
+        <v>19.041567222657562</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9114,99 +9114,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>7.6545872747117425</v>
+        <v>15.309174549423485</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>7.0739533191537003</v>
+        <v>14.147906638307401</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>7.4894793882234412</v>
+        <v>14.978958776446882</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>7.4568659744766599</v>
+        <v>14.91373194895332</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>6.1393204970334709</v>
+        <v>12.278640994066942</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>6.2270771297436482</v>
+        <v>12.454154259487296</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>6.2404651292958686</v>
+        <v>12.480930258591737</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>5.6040767379379819</v>
+        <v>11.208153475875964</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>5.0611134277398424</v>
+        <v>10.122226855479685</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>3.658461882906078</v>
+        <v>7.316923765812156</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>3.3743753498264857</v>
+        <v>6.7487506996529714</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>2.2638531288480914</v>
+        <v>4.5277062576961828</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>1.8815472825478563</v>
+        <v>3.7630945650957126</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>1.8015322400089555</v>
+        <v>3.603064480017911</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>2.4993097223777005</v>
+        <v>4.9986194447554011</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>3.3809856011418327</v>
+        <v>6.7619712022836653</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>3.7801263573267661</v>
+        <v>7.5602527146535321</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>5.191647892645249</v>
+        <v>10.383295785290498</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>4.7222142617261831</v>
+        <v>9.4444285234523662</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>4.4892113511698195</v>
+        <v>8.978422702339639</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>5.9234008032016128</v>
+        <v>11.846801606403226</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>7.0845996585693491</v>
+        <v>14.169199317138698</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>6.6980608418224561</v>
+        <v>13.396121683644912</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>9.5207836113287811</v>
+        <v>19.041567222657562</v>
       </c>
     </row>
   </sheetData>
@@ -9741,99 +9741,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>10.388912567643457</v>
+        <v>20.777825135286914</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>9.1354924890238927</v>
+        <v>18.270984978047785</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>7.5187696229834557</v>
+        <v>15.037539245966911</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>6.5091342914028987</v>
+        <v>13.018268582805797</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>6.0684263005411481</v>
+        <v>12.136852601082296</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>4.8595037778231571</v>
+        <v>9.7190075556463142</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>4.7312288135593219</v>
+        <v>9.4624576271186438</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>4.2894547682254442</v>
+        <v>8.5789095364508885</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>4.4211121605064321</v>
+        <v>8.8422243210128642</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>4.6758315039820308</v>
+        <v>9.3516630079640617</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>4.6801513362773122</v>
+        <v>9.3603026725546243</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>5.4857930237900749</v>
+        <v>10.97158604758015</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>5.4881810930161317</v>
+        <v>10.976362186032263</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>5.5643339672248313</v>
+        <v>11.128667934449663</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>6.265797139830509</v>
+        <v>12.531594279661018</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>5.1724775372677154</v>
+        <v>10.344955074535431</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>5.3582122345313445</v>
+        <v>10.716424469062689</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>5.673694672758832</v>
+        <v>11.347389345517664</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>4.9494456746477429</v>
+        <v>9.8988913492954858</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>5.1265293164182157</v>
+        <v>10.253058632836431</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>4.8040515238921788</v>
+        <v>9.6081030477843576</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>4.3595691239534409</v>
+        <v>8.7191382479068817</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>4.4682544159689606</v>
+        <v>8.9365088319379211</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>4.8862094139268937</v>
+        <v>9.7724188278537873</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9842,99 +9842,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>10.388912567643457</v>
+        <v>20.777825135286914</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>9.1354924890238927</v>
+        <v>18.270984978047785</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>7.5187696229834557</v>
+        <v>15.037539245966911</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>6.5091342914028987</v>
+        <v>13.018268582805797</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>6.0684263005411481</v>
+        <v>12.136852601082296</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>4.8595037778231571</v>
+        <v>9.7190075556463142</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>4.7312288135593219</v>
+        <v>9.4624576271186438</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>4.2894547682254442</v>
+        <v>8.5789095364508885</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>4.4211121605064321</v>
+        <v>8.8422243210128642</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>4.6758315039820308</v>
+        <v>9.3516630079640617</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>4.6801513362773122</v>
+        <v>9.3603026725546243</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>5.4857930237900749</v>
+        <v>10.97158604758015</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>5.4881810930161317</v>
+        <v>10.976362186032263</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>5.5643339672248313</v>
+        <v>11.128667934449663</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>6.265797139830509</v>
+        <v>12.531594279661018</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>5.1724775372677154</v>
+        <v>10.344955074535431</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>5.3582122345313445</v>
+        <v>10.716424469062689</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>5.673694672758832</v>
+        <v>11.347389345517664</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>4.9494456746477429</v>
+        <v>9.8988913492954858</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>5.1265293164182157</v>
+        <v>10.253058632836431</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>4.8040515238921788</v>
+        <v>9.6081030477843576</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>4.3595691239534409</v>
+        <v>8.7191382479068817</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>4.4682544159689606</v>
+        <v>8.9365088319379211</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>4.8862094139268937</v>
+        <v>9.7724188278537873</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9943,99 +9943,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>10.388912567643457</v>
+        <v>20.777825135286914</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>9.1354924890238927</v>
+        <v>18.270984978047785</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>7.5187696229834557</v>
+        <v>15.037539245966911</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>6.5091342914028987</v>
+        <v>13.018268582805797</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>6.0684263005411481</v>
+        <v>12.136852601082296</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>4.8595037778231571</v>
+        <v>9.7190075556463142</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>4.7312288135593219</v>
+        <v>9.4624576271186438</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>4.2894547682254442</v>
+        <v>8.5789095364508885</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>4.4211121605064321</v>
+        <v>8.8422243210128642</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>4.6758315039820308</v>
+        <v>9.3516630079640617</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>4.6801513362773122</v>
+        <v>9.3603026725546243</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>5.4857930237900749</v>
+        <v>10.97158604758015</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>5.4881810930161317</v>
+        <v>10.976362186032263</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>5.5643339672248313</v>
+        <v>11.128667934449663</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>6.265797139830509</v>
+        <v>12.531594279661018</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>5.1724775372677154</v>
+        <v>10.344955074535431</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>5.3582122345313445</v>
+        <v>10.716424469062689</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>5.673694672758832</v>
+        <v>11.347389345517664</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>4.9494456746477429</v>
+        <v>9.8988913492954858</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>5.1265293164182157</v>
+        <v>10.253058632836431</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>4.8040515238921788</v>
+        <v>9.6081030477843576</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>4.3595691239534409</v>
+        <v>8.7191382479068817</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>4.4682544159689606</v>
+        <v>8.9365088319379211</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>4.8862094139268937</v>
+        <v>9.7724188278537873</v>
       </c>
     </row>
   </sheetData>
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>9.4792301721250229</v>
+        <v>18.958460344250046</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>8.8101470341931005</v>
+        <v>17.620294068386201</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>9.5486622304104714</v>
+        <v>19.097324460820943</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>10.647099835089797</v>
+        <v>21.294199670179594</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>9.1071625138498788</v>
+        <v>18.214325027699758</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>7.7261834883660994</v>
+        <v>15.452366976732199</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>5.5610850575897333</v>
+        <v>11.122170115179467</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>4.9503594527042694</v>
+        <v>9.9007189054085387</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>5.0506653095931346</v>
+        <v>10.101330619186269</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>4.9371928547501858</v>
+        <v>9.8743857095003715</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>4.9944695173799891</v>
+        <v>9.9889390347599782</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>5.2533143085366794</v>
+        <v>10.506628617073359</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>4.8053496611610704</v>
+        <v>9.6106993223221409</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>4.630672749877605</v>
+        <v>9.26134549975521</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>6.3449393181993861</v>
+        <v>12.689878636398772</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>8.2658381432142018</v>
+        <v>16.531676286428404</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>8.4391764796825477</v>
+        <v>16.878352959365095</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>8.5916103223479077</v>
+        <v>17.183220644695815</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>8.8285279187817274</v>
+        <v>17.657055837563455</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>9.3134876897111489</v>
+        <v>18.626975379422298</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>9.1857752067819316</v>
+        <v>18.371550413563863</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>8.9894788579968559</v>
+        <v>17.978957715993712</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>8.6075683797572733</v>
+        <v>17.215136759514547</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>7.9389147491561243</v>
+        <v>15.877829498312249</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -10671,99 +10671,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>9.4792301721250229</v>
+        <v>18.958460344250046</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>8.8101470341931005</v>
+        <v>17.620294068386201</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>9.5486622304104714</v>
+        <v>19.097324460820943</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>10.647099835089797</v>
+        <v>21.294199670179594</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>9.1071625138498788</v>
+        <v>18.214325027699758</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>7.7261834883660994</v>
+        <v>15.452366976732199</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>5.5610850575897333</v>
+        <v>11.122170115179467</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>4.9503594527042694</v>
+        <v>9.9007189054085387</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>5.0506653095931346</v>
+        <v>10.101330619186269</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>4.9371928547501858</v>
+        <v>9.8743857095003715</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>4.9944695173799891</v>
+        <v>9.9889390347599782</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>5.2533143085366794</v>
+        <v>10.506628617073359</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>4.8053496611610704</v>
+        <v>9.6106993223221409</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>4.630672749877605</v>
+        <v>9.26134549975521</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>6.3449393181993861</v>
+        <v>12.689878636398772</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>8.2658381432142018</v>
+        <v>16.531676286428404</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>8.4391764796825477</v>
+        <v>16.878352959365095</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>8.5916103223479077</v>
+        <v>17.183220644695815</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>8.8285279187817274</v>
+        <v>17.657055837563455</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>9.3134876897111489</v>
+        <v>18.626975379422298</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>9.1857752067819316</v>
+        <v>18.371550413563863</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>8.9894788579968559</v>
+        <v>17.978957715993712</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>8.6075683797572733</v>
+        <v>17.215136759514547</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>7.9389147491561243</v>
+        <v>15.877829498312249</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -10772,99 +10772,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>9.4792301721250229</v>
+        <v>18.958460344250046</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>8.8101470341931005</v>
+        <v>17.620294068386201</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>9.5486622304104714</v>
+        <v>19.097324460820943</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>10.647099835089797</v>
+        <v>21.294199670179594</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>9.1071625138498788</v>
+        <v>18.214325027699758</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>7.7261834883660994</v>
+        <v>15.452366976732199</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>5.5610850575897333</v>
+        <v>11.122170115179467</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>4.9503594527042694</v>
+        <v>9.9007189054085387</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>5.0506653095931346</v>
+        <v>10.101330619186269</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>4.9371928547501858</v>
+        <v>9.8743857095003715</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>4.9944695173799891</v>
+        <v>9.9889390347599782</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>5.2533143085366794</v>
+        <v>10.506628617073359</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>4.8053496611610704</v>
+        <v>9.6106993223221409</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>4.630672749877605</v>
+        <v>9.26134549975521</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>6.3449393181993861</v>
+        <v>12.689878636398772</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>8.2658381432142018</v>
+        <v>16.531676286428404</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>8.4391764796825477</v>
+        <v>16.878352959365095</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>8.5916103223479077</v>
+        <v>17.183220644695815</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>8.8285279187817274</v>
+        <v>17.657055837563455</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>9.3134876897111489</v>
+        <v>18.626975379422298</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>9.1857752067819316</v>
+        <v>18.371550413563863</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>8.9894788579968559</v>
+        <v>17.978957715993712</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>8.6075683797572733</v>
+        <v>17.215136759514547</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>7.9389147491561243</v>
+        <v>15.877829498312249</v>
       </c>
     </row>
   </sheetData>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -22884,99 +22884,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>5.8940322015280415</v>
+        <v>11.788064403056083</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>5.3054649893652757</v>
+        <v>10.610929978730551</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>5.4673199534031127</v>
+        <v>10.934639906806225</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>5.3689435016231952</v>
+        <v>10.73788700324639</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>4.6044903727751025</v>
+        <v>9.2089807455502051</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>4.3589539908205541</v>
+        <v>8.7179079816411083</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>4.8051581495578191</v>
+        <v>9.6103162991156381</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>4.3711798555916257</v>
+        <v>8.7423597111832514</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>3.5933905336952883</v>
+        <v>7.1867810673905765</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>2.5975079368633152</v>
+        <v>5.1950158737266303</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>2.6657565263629239</v>
+        <v>5.3315130527258479</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.6526127840591067</v>
+        <v>3.3052255681182134</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>1.3547140434344564</v>
+        <v>2.7094280868689129</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>1.4412257920071641</v>
+        <v>2.8824515840143281</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.9244684862308294</v>
+        <v>3.8489369724616589</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>2.4343096328221194</v>
+        <v>4.8686192656442389</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>2.8728960315683425</v>
+        <v>5.745792063136685</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>3.9456523984103891</v>
+        <v>7.8913047968207781</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>3.5888828389118994</v>
+        <v>7.1777656778237988</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>3.1873400593305719</v>
+        <v>6.3746801186611437</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>4.7387206425612902</v>
+        <v>9.4774412851225804</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>5.1009117541699318</v>
+        <v>10.201823508339864</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>4.9565650229486176</v>
+        <v>9.9131300458972351</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>7.2357955446098741</v>
+        <v>14.471591089219748</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -22985,99 +22985,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>5.8940322015280415</v>
+        <v>11.788064403056083</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>5.3054649893652757</v>
+        <v>10.610929978730551</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>5.4673199534031127</v>
+        <v>10.934639906806225</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>5.3689435016231952</v>
+        <v>10.73788700324639</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>4.6044903727751025</v>
+        <v>9.2089807455502051</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>4.3589539908205541</v>
+        <v>8.7179079816411083</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>4.8051581495578191</v>
+        <v>9.6103162991156381</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>4.3711798555916257</v>
+        <v>8.7423597111832514</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>3.5933905336952883</v>
+        <v>7.1867810673905765</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>2.5975079368633152</v>
+        <v>5.1950158737266303</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>2.6657565263629239</v>
+        <v>5.3315130527258479</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.6526127840591067</v>
+        <v>3.3052255681182134</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>1.3547140434344564</v>
+        <v>2.7094280868689129</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>1.4412257920071641</v>
+        <v>2.8824515840143281</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.9244684862308294</v>
+        <v>3.8489369724616589</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>2.4343096328221194</v>
+        <v>4.8686192656442389</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>2.8728960315683425</v>
+        <v>5.745792063136685</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>3.9456523984103891</v>
+        <v>7.8913047968207781</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>3.5888828389118994</v>
+        <v>7.1777656778237988</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>3.1873400593305719</v>
+        <v>6.3746801186611437</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>4.7387206425612902</v>
+        <v>9.4774412851225804</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>5.1009117541699318</v>
+        <v>10.201823508339864</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>4.9565650229486176</v>
+        <v>9.9131300458972351</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>7.2357955446098741</v>
+        <v>14.471591089219748</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -23086,99 +23086,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>5.8940322015280415</v>
+        <v>11.788064403056083</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>5.3054649893652757</v>
+        <v>10.610929978730551</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>5.4673199534031127</v>
+        <v>10.934639906806225</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>5.3689435016231952</v>
+        <v>10.73788700324639</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>4.6044903727751025</v>
+        <v>9.2089807455502051</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>4.3589539908205541</v>
+        <v>8.7179079816411083</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>4.8051581495578191</v>
+        <v>9.6103162991156381</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>4.3711798555916257</v>
+        <v>8.7423597111832514</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>3.5933905336952883</v>
+        <v>7.1867810673905765</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>2.5975079368633152</v>
+        <v>5.1950158737266303</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>2.6657565263629239</v>
+        <v>5.3315130527258479</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>1.6526127840591067</v>
+        <v>3.3052255681182134</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>1.3547140434344564</v>
+        <v>2.7094280868689129</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>1.4412257920071641</v>
+        <v>2.8824515840143281</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>1.9244684862308294</v>
+        <v>3.8489369724616589</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>2.4343096328221194</v>
+        <v>4.8686192656442389</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>2.8728960315683425</v>
+        <v>5.745792063136685</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>3.9456523984103891</v>
+        <v>7.8913047968207781</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>3.5888828389118994</v>
+        <v>7.1777656778237988</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>3.1873400593305719</v>
+        <v>6.3746801186611437</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>4.7387206425612902</v>
+        <v>9.4774412851225804</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>5.1009117541699318</v>
+        <v>10.201823508339864</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>4.9565650229486176</v>
+        <v>9.9131300458972351</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>7.2357955446098741</v>
+        <v>14.471591089219748</v>
       </c>
     </row>
   </sheetData>
@@ -23808,99 +23808,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>7.7916844257325932</v>
+        <v>15.583368851465186</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>6.3948447423167245</v>
+        <v>12.789689484633449</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>5.7894526096972614</v>
+        <v>11.578905219394523</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>5.0771247472942616</v>
+        <v>10.154249494588523</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>4.551319725405861</v>
+        <v>9.1026394508117221</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>3.8876030222585256</v>
+        <v>7.7752060445170512</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>3.6430461864406776</v>
+        <v>7.2860923728813551</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>3.3886692668981007</v>
+        <v>6.7773385337962013</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>3.1832007555646307</v>
+        <v>6.3664015111292613</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>3.5536319430263434</v>
+        <v>7.1072638860526869</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>3.3229074487568915</v>
+        <v>6.645814897513783</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>3.8400551166530525</v>
+        <v>7.6801102333061051</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>4.2258994416224223</v>
+        <v>8.4517988832448445</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>4.0619637960741271</v>
+        <v>8.1239275921482541</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>4.6366898834745767</v>
+        <v>9.2733797669491533</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>4.0862572544414952</v>
+        <v>8.1725145088829905</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>3.8579128088625678</v>
+        <v>7.7158256177251356</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>3.9715862709311818</v>
+        <v>7.9431725418623635</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>3.8110731694787616</v>
+        <v>7.6221463389575232</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>3.9986928668062083</v>
+        <v>7.9973857336124166</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>3.7471601886358998</v>
+        <v>7.4943203772717997</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>3.1824854604860118</v>
+        <v>6.3649709209720235</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>3.5746035327751682</v>
+        <v>7.1492070655503364</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>3.4203465897488257</v>
+        <v>6.8406931794976513</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -23909,99 +23909,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>7.7916844257325932</v>
+        <v>15.583368851465186</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>6.3948447423167245</v>
+        <v>12.789689484633449</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>5.7894526096972614</v>
+        <v>11.578905219394523</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>5.0771247472942616</v>
+        <v>10.154249494588523</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>4.551319725405861</v>
+        <v>9.1026394508117221</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>3.8876030222585256</v>
+        <v>7.7752060445170512</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>3.6430461864406776</v>
+        <v>7.2860923728813551</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>3.3886692668981007</v>
+        <v>6.7773385337962013</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>3.1832007555646307</v>
+        <v>6.3664015111292613</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>3.5536319430263434</v>
+        <v>7.1072638860526869</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>3.3229074487568915</v>
+        <v>6.645814897513783</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>3.8400551166530525</v>
+        <v>7.6801102333061051</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>4.2258994416224223</v>
+        <v>8.4517988832448445</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>4.0619637960741271</v>
+        <v>8.1239275921482541</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>4.6366898834745767</v>
+        <v>9.2733797669491533</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>4.0862572544414952</v>
+        <v>8.1725145088829905</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>3.8579128088625678</v>
+        <v>7.7158256177251356</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>3.9715862709311818</v>
+        <v>7.9431725418623635</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>3.8110731694787616</v>
+        <v>7.6221463389575232</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>3.9986928668062083</v>
+        <v>7.9973857336124166</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>3.7471601886358998</v>
+        <v>7.4943203772717997</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>3.1824854604860118</v>
+        <v>6.3649709209720235</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>3.5746035327751682</v>
+        <v>7.1492070655503364</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>3.4203465897488257</v>
+        <v>6.8406931794976513</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24010,99 +24010,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>7.7916844257325932</v>
+        <v>15.583368851465186</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>6.3948447423167245</v>
+        <v>12.789689484633449</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>5.7894526096972614</v>
+        <v>11.578905219394523</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>5.0771247472942616</v>
+        <v>10.154249494588523</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>4.551319725405861</v>
+        <v>9.1026394508117221</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>3.8876030222585256</v>
+        <v>7.7752060445170512</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>3.6430461864406776</v>
+        <v>7.2860923728813551</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>3.3886692668981007</v>
+        <v>6.7773385337962013</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>3.1832007555646307</v>
+        <v>6.3664015111292613</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>3.5536319430263434</v>
+        <v>7.1072638860526869</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>3.3229074487568915</v>
+        <v>6.645814897513783</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>3.8400551166530525</v>
+        <v>7.6801102333061051</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>4.2258994416224223</v>
+        <v>8.4517988832448445</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>4.0619637960741271</v>
+        <v>8.1239275921482541</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>4.6366898834745767</v>
+        <v>9.2733797669491533</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>4.0862572544414952</v>
+        <v>8.1725145088829905</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>3.8579128088625678</v>
+        <v>7.7158256177251356</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>3.9715862709311818</v>
+        <v>7.9431725418623635</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>3.8110731694787616</v>
+        <v>7.6221463389575232</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>3.9986928668062083</v>
+        <v>7.9973857336124166</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>3.7471601886358998</v>
+        <v>7.4943203772717997</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>3.1824854604860118</v>
+        <v>6.3649709209720235</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>3.5746035327751682</v>
+        <v>7.1492070655503364</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>3.4203465897488257</v>
+        <v>6.8406931794976513</v>
       </c>
     </row>
   </sheetData>
@@ -24637,99 +24637,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>6.7302534222087669</v>
+        <v>13.460506844417534</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>6.2552043942771007</v>
+        <v>12.510408788554201</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>7.543443162024273</v>
+        <v>15.086886324048546</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>7.6659118812646536</v>
+        <v>15.331823762529307</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>6.8303718853874091</v>
+        <v>13.660743770774818</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>6.0264231209255579</v>
+        <v>12.052846241851116</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>4.393257195495889</v>
+        <v>8.786514390991778</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>3.7622731840552452</v>
+        <v>7.5245463681104905</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>3.8890122883867138</v>
+        <v>7.7780245767734275</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>3.6535227125151377</v>
+        <v>7.3070454250302754</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>3.9955756139039913</v>
+        <v>7.9911512278079826</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>4.1501183037439766</v>
+        <v>8.3002366074879532</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>3.4117982594243603</v>
+        <v>6.8235965188487206</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>3.611924744904532</v>
+        <v>7.2238494898090639</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>4.6318057022855523</v>
+        <v>9.2636114045711047</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>6.0340618445463674</v>
+        <v>12.068123689092735</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>5.9074235357777836</v>
+        <v>11.814847071555567</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>6.357791638537452</v>
+        <v>12.715583277074904</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>6.1799695431472088</v>
+        <v>12.359939086294418</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>6.9851157672833617</v>
+        <v>13.970231534566723</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>7.0730469092220876</v>
+        <v>14.146093818444175</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>6.83200393207761</v>
+        <v>13.66400786415522</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>6.2835249172228096</v>
+        <v>12.567049834445619</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>6.112964356850215</v>
+        <v>12.22592871370043</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24738,99 +24738,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>6.7302534222087669</v>
+        <v>13.460506844417534</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>6.2552043942771007</v>
+        <v>12.510408788554201</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>7.543443162024273</v>
+        <v>15.086886324048546</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>7.6659118812646536</v>
+        <v>15.331823762529307</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>6.8303718853874091</v>
+        <v>13.660743770774818</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>6.0264231209255579</v>
+        <v>12.052846241851116</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>4.393257195495889</v>
+        <v>8.786514390991778</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>3.7622731840552452</v>
+        <v>7.5245463681104905</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>3.8890122883867138</v>
+        <v>7.7780245767734275</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>3.6535227125151377</v>
+        <v>7.3070454250302754</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>3.9955756139039913</v>
+        <v>7.9911512278079826</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>4.1501183037439766</v>
+        <v>8.3002366074879532</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>3.4117982594243603</v>
+        <v>6.8235965188487206</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>3.611924744904532</v>
+        <v>7.2238494898090639</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>4.6318057022855523</v>
+        <v>9.2636114045711047</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>6.0340618445463674</v>
+        <v>12.068123689092735</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>5.9074235357777836</v>
+        <v>11.814847071555567</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>6.357791638537452</v>
+        <v>12.715583277074904</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>6.1799695431472088</v>
+        <v>12.359939086294418</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>6.9851157672833617</v>
+        <v>13.970231534566723</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>7.0730469092220876</v>
+        <v>14.146093818444175</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>6.83200393207761</v>
+        <v>13.66400786415522</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>6.2835249172228096</v>
+        <v>12.567049834445619</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>6.112964356850215</v>
+        <v>12.22592871370043</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24839,99 +24839,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>6.7302534222087669</v>
+        <v>13.460506844417534</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>6.2552043942771007</v>
+        <v>12.510408788554201</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>7.543443162024273</v>
+        <v>15.086886324048546</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>7.6659118812646536</v>
+        <v>15.331823762529307</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>6.8303718853874091</v>
+        <v>13.660743770774818</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>6.0264231209255579</v>
+        <v>12.052846241851116</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>4.393257195495889</v>
+        <v>8.786514390991778</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>3.7622731840552452</v>
+        <v>7.5245463681104905</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>3.8890122883867138</v>
+        <v>7.7780245767734275</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>3.6535227125151377</v>
+        <v>7.3070454250302754</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>3.9955756139039913</v>
+        <v>7.9911512278079826</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>4.1501183037439766</v>
+        <v>8.3002366074879532</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>3.4117982594243603</v>
+        <v>6.8235965188487206</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>3.611924744904532</v>
+        <v>7.2238494898090639</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>4.6318057022855523</v>
+        <v>9.2636114045711047</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>6.0340618445463674</v>
+        <v>12.068123689092735</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>5.9074235357777836</v>
+        <v>11.814847071555567</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>6.357791638537452</v>
+        <v>12.715583277074904</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>6.1799695431472088</v>
+        <v>12.359939086294418</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>6.9851157672833617</v>
+        <v>13.970231534566723</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>7.0730469092220876</v>
+        <v>14.146093818444175</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>6.83200393207761</v>
+        <v>13.66400786415522</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>6.2835249172228096</v>
+        <v>12.567049834445619</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>6.112964356850215</v>
+        <v>12.22592871370043</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE9/ieee9/ieee9_2035.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6425C72E-30E6-4DF5-B34F-9F018DDD1603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748E117C-FC9F-49F1-8F20-E87F4EABD7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="5055" windowWidth="28800" windowHeight="15435" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8010" yWindow="4275" windowWidth="28800" windowHeight="15435" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/ieee9/ieee9_2035.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748E117C-FC9F-49F1-8F20-E87F4EABD7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33E713C-E146-49C6-A2D5-CD90DA15C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="4275" windowWidth="28800" windowHeight="15435" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13004,7 +13004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -13088,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13253,76 +13253,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27236,76 +27236,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2035.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33E713C-E146-49C6-A2D5-CD90DA15C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB54A3E7-8579-4A46-B420-413837444DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13004,8 +13004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27071,7 +27071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
